--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_9_40.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_9_40.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4068990.64237344</v>
+        <v>4066594.986368259</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7131285.255907159</v>
+        <v>7131285.255907158</v>
       </c>
     </row>
     <row r="11">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>93.21711065106307</v>
+        <v>412.2877386950441</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>308.5974454495113</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>94.24014755885155</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,10 +707,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>140.315783973424</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>209.8976922291835</v>
       </c>
       <c r="U2" t="n">
         <v>251.1044530022292</v>
@@ -722,10 +722,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>42.7673471940124</v>
       </c>
     </row>
     <row r="3">
@@ -820,10 +820,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>54.68220313418247</v>
+        <v>76.09041897643186</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -835,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>114.7793764994862</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -865,25 +865,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>200.4475243713015</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>222.1670476323163</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.245260737819</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,10 +893,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>221.5141219287736</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -905,16 +905,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>411.5250233818693</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>300.7862872484598</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>64.83556544767973</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,25 +944,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>122.935408774453</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.5589059457607</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.0434357771752</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>96.08390862358902</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>92.71437374394026</v>
       </c>
       <c r="I6" t="n">
-        <v>19.80516901555394</v>
+        <v>19.80516901555393</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1051,25 +1051,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>45.89752371724541</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.2964268507295</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>147.161060211447</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,22 +1099,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.1001486205444</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.4851693340911</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7052287134384</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2265992197056</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>33.93089591116134</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1133,25 +1133,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>11.52502338186935</v>
+        <v>11.52502338186934</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>300.7862872484598</v>
       </c>
       <c r="I8" t="n">
-        <v>64.8355654476797</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>122.935408774453</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.5589059457607</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.0434357771752</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>158.7162633552382</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>198.6757643688442</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>92.71437374394026</v>
       </c>
       <c r="I9" t="n">
-        <v>19.80516901555393</v>
+        <v>19.80516901555391</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1288,28 +1288,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>20.68255694671224</v>
       </c>
       <c r="G10" t="n">
-        <v>166.2964268507295</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.161060211447</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>33.93089591116166</v>
+        <v>104.4906595130011</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,25 +1336,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.1001486205444</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.4851693340911</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7052287134384</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2265992197056</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1376,7 +1376,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722626</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1528,7 +1528,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1537,10 +1537,10 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>130.1208074460236</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
@@ -1588,7 +1588,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>229.2938944146491</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1616,7 +1616,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.876045741713</v>
+        <v>406.8760457417118</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1664,7 +1664,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1774,13 +1774,13 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>83.06560892428253</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187875</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1904,7 +1904,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.2409687174121</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>117.4765410832882</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2011,13 +2011,13 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2239,19 +2239,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>123.9815576456779</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>41.16673120696654</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2296,7 +2296,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2476,22 +2476,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>102.1557845699818</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2713,16 +2713,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2770,7 +2770,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>194.9085394018857</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>34.56584948763727</v>
       </c>
     </row>
     <row r="29">
@@ -2792,7 +2792,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>52.10645541514072</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>44.7513807668926</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3187,19 +3187,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>104.8913819999782</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>123.9815576456779</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3424,25 +3424,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>100.7197280522375</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3487,7 +3487,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634797</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187868</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3661,22 +3661,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428169</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3752,7 +3752,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3895,25 +3895,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>108.2950343703266</v>
+        <v>133.3722917337063</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4132,19 +4132,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -4153,7 +4153,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4189,7 +4189,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>80.33989744908955</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4201,7 +4201,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>53.07327741456153</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1265.920521844766</v>
+        <v>882.1042769845554</v>
       </c>
       <c r="C2" t="n">
-        <v>896.9580049043543</v>
+        <v>882.1042769845554</v>
       </c>
       <c r="D2" t="n">
-        <v>538.6923062976039</v>
+        <v>882.1042769845554</v>
       </c>
       <c r="E2" t="n">
-        <v>152.9040536993596</v>
+        <v>882.1042769845554</v>
       </c>
       <c r="F2" t="n">
-        <v>145.9585529501562</v>
+        <v>875.158776235352</v>
       </c>
       <c r="G2" t="n">
-        <v>51.79985532281972</v>
+        <v>458.7065149272266</v>
       </c>
       <c r="H2" t="n">
-        <v>51.79985532281972</v>
+        <v>146.9919235640839</v>
       </c>
       <c r="I2" t="n">
         <v>51.79985532281972</v>
@@ -4331,22 +4331,22 @@
         <v>293.3053724073764</v>
       </c>
       <c r="K2" t="n">
-        <v>644.3837423617397</v>
+        <v>776.0043429178249</v>
       </c>
       <c r="L2" t="n">
-        <v>882.0065235799317</v>
+        <v>1410.779085423005</v>
       </c>
       <c r="M2" t="n">
-        <v>1178.077090137535</v>
+        <v>1706.849651980608</v>
       </c>
       <c r="N2" t="n">
-        <v>1483.55219637312</v>
+        <v>2012.324758216193</v>
       </c>
       <c r="O2" t="n">
-        <v>1758.668415689755</v>
+        <v>2287.440977532828</v>
       </c>
       <c r="P2" t="n">
-        <v>2277.553464068626</v>
+        <v>2487.745304821931</v>
       </c>
       <c r="Q2" t="n">
         <v>2589.992766140986</v>
@@ -4355,25 +4355,25 @@
         <v>2589.992766140986</v>
       </c>
       <c r="S2" t="n">
-        <v>2589.992766140986</v>
+        <v>2448.259651016315</v>
       </c>
       <c r="T2" t="n">
-        <v>2589.992766140986</v>
+        <v>2236.241780077746</v>
       </c>
       <c r="U2" t="n">
-        <v>2336.351904522573</v>
+        <v>1982.600918459333</v>
       </c>
       <c r="V2" t="n">
-        <v>2005.289017179002</v>
+        <v>1651.538031115762</v>
       </c>
       <c r="W2" t="n">
-        <v>1652.520361908888</v>
+        <v>1298.769375845648</v>
       </c>
       <c r="X2" t="n">
-        <v>1652.520361908888</v>
+        <v>925.303617584568</v>
       </c>
       <c r="Y2" t="n">
-        <v>1652.520361908888</v>
+        <v>882.1042769845554</v>
       </c>
     </row>
     <row r="3">
@@ -4383,49 +4383,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>949.8902083093631</v>
+        <v>949.8902083093635</v>
       </c>
       <c r="C3" t="n">
-        <v>775.4371790282361</v>
+        <v>775.4371790282365</v>
       </c>
       <c r="D3" t="n">
-        <v>626.5027693669849</v>
+        <v>626.5027693669851</v>
       </c>
       <c r="E3" t="n">
-        <v>467.2653143615294</v>
+        <v>467.2653143615296</v>
       </c>
       <c r="F3" t="n">
-        <v>320.7307563884145</v>
+        <v>320.7307563884146</v>
       </c>
       <c r="G3" t="n">
-        <v>183.6293921686806</v>
+        <v>183.6293921686807</v>
       </c>
       <c r="H3" t="n">
-        <v>85.99742130093821</v>
+        <v>85.99742130093836</v>
       </c>
       <c r="I3" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J3" t="n">
-        <v>201.9455071369554</v>
+        <v>77.11538214995069</v>
       </c>
       <c r="K3" t="n">
-        <v>585.1891840496874</v>
+        <v>198.5384744202298</v>
       </c>
       <c r="L3" t="n">
-        <v>794.7800573025183</v>
+        <v>775.2612895234854</v>
       </c>
       <c r="M3" t="n">
-        <v>1058.719588798006</v>
+        <v>1416.284499143379</v>
       </c>
       <c r="N3" t="n">
-        <v>1344.053459231339</v>
+        <v>1798.302562220579</v>
       </c>
       <c r="O3" t="n">
-        <v>1829.130999113547</v>
+        <v>2037.107513972038</v>
       </c>
       <c r="P3" t="n">
-        <v>2316.738101020795</v>
+        <v>2524.714615879285</v>
       </c>
       <c r="Q3" t="n">
         <v>2589.992766140986</v>
@@ -4440,7 +4440,7 @@
         <v>2251.223226128891</v>
       </c>
       <c r="U3" t="n">
-        <v>2023.106809259862</v>
+        <v>2023.106809259863</v>
       </c>
       <c r="V3" t="n">
         <v>1787.95470102812</v>
@@ -4452,7 +4452,7 @@
         <v>1325.865844094385</v>
       </c>
       <c r="Y3" t="n">
-        <v>1118.105545329431</v>
+        <v>1118.105545329432</v>
       </c>
     </row>
     <row r="4">
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>426.0872262834487</v>
+        <v>413.5338114587247</v>
       </c>
       <c r="C4" t="n">
-        <v>257.1510433555418</v>
+        <v>244.5976285308178</v>
       </c>
       <c r="D4" t="n">
-        <v>107.0344039432061</v>
+        <v>244.5976285308178</v>
       </c>
       <c r="E4" t="n">
-        <v>51.79985532281972</v>
+        <v>167.7386194637149</v>
       </c>
       <c r="F4" t="n">
-        <v>51.79985532281972</v>
+        <v>167.7386194637149</v>
       </c>
       <c r="G4" t="n">
-        <v>51.79985532281972</v>
+        <v>167.7386194637149</v>
       </c>
       <c r="H4" t="n">
-        <v>51.79985532281972</v>
+        <v>167.7386194637149</v>
       </c>
       <c r="I4" t="n">
         <v>51.79985532281972</v>
@@ -4513,25 +4513,25 @@
         <v>1311.202309361123</v>
       </c>
       <c r="S4" t="n">
-        <v>1311.202309361123</v>
+        <v>1108.730062521424</v>
       </c>
       <c r="T4" t="n">
-        <v>1311.202309361123</v>
+        <v>884.3189032968623</v>
       </c>
       <c r="U4" t="n">
-        <v>1311.202309361123</v>
+        <v>595.1822762889644</v>
       </c>
       <c r="V4" t="n">
-        <v>1056.517821155236</v>
+        <v>595.1822762889644</v>
       </c>
       <c r="W4" t="n">
-        <v>1056.517821155236</v>
+        <v>595.1822762889644</v>
       </c>
       <c r="X4" t="n">
-        <v>828.5282702572185</v>
+        <v>595.1822762889644</v>
       </c>
       <c r="Y4" t="n">
-        <v>607.7356911136884</v>
+        <v>595.1822762889644</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4541,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1460.484938830938</v>
+        <v>1202.007899202015</v>
       </c>
       <c r="C5" t="n">
-        <v>1236.733300519046</v>
+        <v>1202.007899202015</v>
       </c>
       <c r="D5" t="n">
-        <v>878.4676019122953</v>
+        <v>843.7422005952644</v>
       </c>
       <c r="E5" t="n">
-        <v>878.4676019122953</v>
+        <v>843.7422005952644</v>
       </c>
       <c r="F5" t="n">
-        <v>467.4816971226878</v>
+        <v>836.796699846061</v>
       </c>
       <c r="G5" t="n">
-        <v>51.79985532281972</v>
+        <v>421.1148580461929</v>
       </c>
       <c r="H5" t="n">
-        <v>51.79985532281972</v>
+        <v>117.2903254719912</v>
       </c>
       <c r="I5" t="n">
-        <v>51.79985532281972</v>
+        <v>51.79985532281973</v>
       </c>
       <c r="J5" t="n">
-        <v>189.9868871104782</v>
+        <v>189.9868871104777</v>
       </c>
       <c r="K5" t="n">
         <v>447.8319447135507</v>
       </c>
       <c r="L5" t="n">
-        <v>804.6133007477381</v>
+        <v>804.6133007477383</v>
       </c>
       <c r="M5" t="n">
         <v>1233.270741187502</v>
@@ -4586,31 +4586,31 @@
         <v>2384.705143645557</v>
       </c>
       <c r="Q5" t="n">
-        <v>2568.493631507462</v>
+        <v>2568.493631507463</v>
       </c>
       <c r="R5" t="n">
-        <v>2589.992766140986</v>
+        <v>2589.992766140987</v>
       </c>
       <c r="S5" t="n">
-        <v>2589.992766140986</v>
+        <v>2465.815585560731</v>
       </c>
       <c r="T5" t="n">
-        <v>2589.992766140986</v>
+        <v>2257.170226019558</v>
       </c>
       <c r="U5" t="n">
-        <v>2589.992766140986</v>
+        <v>2003.590997961806</v>
       </c>
       <c r="V5" t="n">
-        <v>2589.992766140986</v>
+        <v>1672.528110618235</v>
       </c>
       <c r="W5" t="n">
-        <v>2237.224110870872</v>
+        <v>1672.528110618235</v>
       </c>
       <c r="X5" t="n">
-        <v>2237.224110870872</v>
+        <v>1299.062352357155</v>
       </c>
       <c r="Y5" t="n">
-        <v>1847.08477889506</v>
+        <v>1202.007899202015</v>
       </c>
     </row>
     <row r="6">
@@ -4641,25 +4641,25 @@
         <v>71.80507655065199</v>
       </c>
       <c r="I6" t="n">
-        <v>51.79985532281972</v>
+        <v>51.79985532281973</v>
       </c>
       <c r="J6" t="n">
         <v>115.2852578226161</v>
       </c>
       <c r="K6" t="n">
-        <v>301.9467472258287</v>
+        <v>301.9467472258289</v>
       </c>
       <c r="L6" t="n">
-        <v>788.8134803644011</v>
+        <v>942.969956845723</v>
       </c>
       <c r="M6" t="n">
-        <v>1155.119369856727</v>
+        <v>1309.275846338048</v>
       </c>
       <c r="N6" t="n">
-        <v>1545.528931182469</v>
+        <v>1699.685407663791</v>
       </c>
       <c r="O6" t="n">
-        <v>1880.457611898</v>
+        <v>2195.735752851538</v>
       </c>
       <c r="P6" t="n">
         <v>2445.212480716556</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>982.2794430485947</v>
+        <v>98.16099039074439</v>
       </c>
       <c r="C7" t="n">
-        <v>813.3432601206878</v>
+        <v>51.79985532281973</v>
       </c>
       <c r="D7" t="n">
-        <v>663.226620708352</v>
+        <v>51.79985532281973</v>
       </c>
       <c r="E7" t="n">
-        <v>515.3135271259589</v>
+        <v>51.79985532281973</v>
       </c>
       <c r="F7" t="n">
-        <v>368.4235796280485</v>
+        <v>51.79985532281973</v>
       </c>
       <c r="G7" t="n">
-        <v>200.4473908899379</v>
+        <v>51.79985532281973</v>
       </c>
       <c r="H7" t="n">
-        <v>51.79985532281972</v>
+        <v>51.79985532281973</v>
       </c>
       <c r="I7" t="n">
-        <v>51.79985532281972</v>
+        <v>51.79985532281973</v>
       </c>
       <c r="J7" t="n">
-        <v>77.98108068080549</v>
+        <v>77.98108068080552</v>
       </c>
       <c r="K7" t="n">
         <v>250.8417132121972</v>
       </c>
       <c r="L7" t="n">
-        <v>527.5702436225444</v>
+        <v>527.5702436225445</v>
       </c>
       <c r="M7" t="n">
-        <v>829.7308018317422</v>
+        <v>829.7308018317423</v>
       </c>
       <c r="N7" t="n">
-        <v>1130.141273750633</v>
+        <v>1130.141273750634</v>
       </c>
       <c r="O7" t="n">
         <v>1391.602671897099</v>
       </c>
       <c r="P7" t="n">
-        <v>1591.80738463481</v>
+        <v>1591.807384634811</v>
       </c>
       <c r="Q7" t="n">
         <v>1646.983670153878</v>
       </c>
       <c r="R7" t="n">
-        <v>1646.983670153878</v>
+        <v>1544.862307910904</v>
       </c>
       <c r="S7" t="n">
-        <v>1646.983670153878</v>
+        <v>1348.412641916873</v>
       </c>
       <c r="T7" t="n">
-        <v>1646.983670153878</v>
+        <v>1125.478067458854</v>
       </c>
       <c r="U7" t="n">
-        <v>1646.983670153878</v>
+        <v>836.3602904692525</v>
       </c>
       <c r="V7" t="n">
-        <v>1646.983670153878</v>
+        <v>836.3602904692525</v>
       </c>
       <c r="W7" t="n">
-        <v>1612.710037920382</v>
+        <v>546.9431204322918</v>
       </c>
       <c r="X7" t="n">
-        <v>1384.720487022364</v>
+        <v>318.9535695342745</v>
       </c>
       <c r="Y7" t="n">
-        <v>1163.927907878834</v>
+        <v>98.16099039074439</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1652.934136166469</v>
+        <v>732.4770250124395</v>
       </c>
       <c r="C8" t="n">
-        <v>1283.971619226057</v>
+        <v>732.4770250124395</v>
       </c>
       <c r="D8" t="n">
-        <v>925.7059206193069</v>
+        <v>374.211326405689</v>
       </c>
       <c r="E8" t="n">
-        <v>539.9176680210627</v>
+        <v>374.211326405689</v>
       </c>
       <c r="F8" t="n">
-        <v>128.9317632314551</v>
+        <v>367.2658256564855</v>
       </c>
       <c r="G8" t="n">
-        <v>117.2903254719911</v>
+        <v>355.6243878970215</v>
       </c>
       <c r="H8" t="n">
-        <v>117.2903254719911</v>
+        <v>51.79985532281973</v>
       </c>
       <c r="I8" t="n">
         <v>51.79985532281973</v>
       </c>
       <c r="J8" t="n">
-        <v>189.9868871104782</v>
+        <v>189.9868871104781</v>
       </c>
       <c r="K8" t="n">
         <v>447.8319447135512</v>
       </c>
       <c r="L8" t="n">
-        <v>804.6133007477388</v>
+        <v>804.6133007477383</v>
       </c>
       <c r="M8" t="n">
         <v>1233.270741187503</v>
@@ -4829,25 +4829,25 @@
         <v>2589.992766140987</v>
       </c>
       <c r="S8" t="n">
-        <v>2589.992766140987</v>
+        <v>2465.815585560731</v>
       </c>
       <c r="T8" t="n">
-        <v>2589.992766140987</v>
+        <v>2257.170226019558</v>
       </c>
       <c r="U8" t="n">
-        <v>2589.992766140987</v>
+        <v>2003.590997961806</v>
       </c>
       <c r="V8" t="n">
-        <v>2589.992766140987</v>
+        <v>1672.528110618235</v>
       </c>
       <c r="W8" t="n">
-        <v>2429.673308206402</v>
+        <v>1319.759455348121</v>
       </c>
       <c r="X8" t="n">
-        <v>2429.673308206402</v>
+        <v>1119.076865076561</v>
       </c>
       <c r="Y8" t="n">
-        <v>2039.533976230591</v>
+        <v>1119.076865076561</v>
       </c>
     </row>
     <row r="9">
@@ -4866,40 +4866,40 @@
         <v>607.9171255411325</v>
       </c>
       <c r="E9" t="n">
-        <v>448.679670535677</v>
+        <v>448.6796705356769</v>
       </c>
       <c r="F9" t="n">
-        <v>302.145112562562</v>
+        <v>302.1451125625619</v>
       </c>
       <c r="G9" t="n">
         <v>165.4559591202886</v>
       </c>
       <c r="H9" t="n">
-        <v>71.80507655065199</v>
+        <v>71.80507655065196</v>
       </c>
       <c r="I9" t="n">
         <v>51.79985532281973</v>
       </c>
       <c r="J9" t="n">
-        <v>150.3210832974673</v>
+        <v>115.2852578226162</v>
       </c>
       <c r="K9" t="n">
-        <v>598.8031573431329</v>
+        <v>301.946747225829</v>
       </c>
       <c r="L9" t="n">
-        <v>896.1151064594476</v>
+        <v>599.2586963421438</v>
       </c>
       <c r="M9" t="n">
-        <v>1262.420995951773</v>
+        <v>965.5645858344694</v>
       </c>
       <c r="N9" t="n">
-        <v>1652.830557277516</v>
+        <v>1606.587795454363</v>
       </c>
       <c r="O9" t="n">
-        <v>1987.759237993047</v>
+        <v>2195.735752851538</v>
       </c>
       <c r="P9" t="n">
-        <v>2237.235965858066</v>
+        <v>2445.212480716556</v>
       </c>
       <c r="Q9" t="n">
         <v>2562.061870084021</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1016.553075282091</v>
+        <v>326.1505412887617</v>
       </c>
       <c r="C10" t="n">
-        <v>847.6168923541844</v>
+        <v>326.1505412887617</v>
       </c>
       <c r="D10" t="n">
-        <v>697.5002529418487</v>
+        <v>326.1505412887617</v>
       </c>
       <c r="E10" t="n">
-        <v>549.5871593594555</v>
+        <v>178.2374477063686</v>
       </c>
       <c r="F10" t="n">
-        <v>402.6972118615452</v>
+        <v>157.3459760430229</v>
       </c>
       <c r="G10" t="n">
-        <v>234.7210231234345</v>
+        <v>157.3459760430229</v>
       </c>
       <c r="H10" t="n">
-        <v>86.07348755631637</v>
+        <v>157.3459760430229</v>
       </c>
       <c r="I10" t="n">
         <v>51.79985532281973</v>
       </c>
       <c r="J10" t="n">
-        <v>77.98108068080552</v>
+        <v>77.98108068080555</v>
       </c>
       <c r="K10" t="n">
         <v>250.8417132121973</v>
@@ -4984,28 +4984,28 @@
         <v>1646.983670153878</v>
       </c>
       <c r="R10" t="n">
-        <v>1646.983670153878</v>
+        <v>1544.862307910904</v>
       </c>
       <c r="S10" t="n">
-        <v>1646.983670153878</v>
+        <v>1348.412641916873</v>
       </c>
       <c r="T10" t="n">
-        <v>1646.983670153878</v>
+        <v>1125.478067458854</v>
       </c>
       <c r="U10" t="n">
-        <v>1646.983670153878</v>
+        <v>836.3602904692525</v>
       </c>
       <c r="V10" t="n">
-        <v>1646.983670153878</v>
+        <v>836.3602904692525</v>
       </c>
       <c r="W10" t="n">
-        <v>1646.983670153878</v>
+        <v>546.9431204322918</v>
       </c>
       <c r="X10" t="n">
-        <v>1418.994119255861</v>
+        <v>546.9431204322918</v>
       </c>
       <c r="Y10" t="n">
-        <v>1198.201540112331</v>
+        <v>326.1505412887617</v>
       </c>
     </row>
     <row r="11">
@@ -5015,13 +5015,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
         <v>1204.759558406469</v>
@@ -5036,28 +5036,28 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852256</v>
@@ -5118,28 +5118,28 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>913.2907898186995</v>
       </c>
       <c r="N12" t="n">
-        <v>2297.690135143765</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,19 +5173,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C13" t="n">
-        <v>402.7245934908938</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D13" t="n">
-        <v>402.7245934908938</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="E13" t="n">
-        <v>402.7245934908938</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908938</v>
+        <v>366.9636532421613</v>
       </c>
       <c r="G13" t="n">
         <v>235.5284942057738</v>
@@ -5236,13 +5236,13 @@
         <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y13" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="14">
@@ -5252,28 +5252,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004715</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406471</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111717</v>
@@ -5282,46 +5282,46 @@
         <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
         <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355939</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
         <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756267</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468473</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N15" t="n">
-        <v>2297.690135143765</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="O15" t="n">
-        <v>2319.799627685893</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400721</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121652</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121652</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121652</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121652</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>177.7213185270452</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782958</v>
@@ -5443,7 +5443,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
         <v>1665.560112570818</v>
@@ -5452,13 +5452,13 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
         <v>2197.062545487568</v>
@@ -5476,10 +5476,10 @@
         <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>916.294644713842</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703119</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="17">
@@ -5507,16 +5507,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332388</v>
@@ -5534,22 +5534,22 @@
         <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
         <v>3467.980956852889</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>542.9134462654469</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1140.291933891999</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1767.889897446606</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O18" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>576.8388927589092</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5729,7 +5729,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5738,22 +5738,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5762,37 +5762,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,22 +5823,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438176</v>
+        <v>842.6091804069456</v>
       </c>
       <c r="N21" t="n">
         <v>1307.627092998424</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>768.5380889459586</v>
       </c>
       <c r="C22" t="n">
-        <v>388.6197041282753</v>
+        <v>599.6019060180517</v>
       </c>
       <c r="D22" t="n">
-        <v>388.6197041282753</v>
+        <v>449.485266605716</v>
       </c>
       <c r="E22" t="n">
-        <v>240.7066105458822</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F22" t="n">
-        <v>93.81666304797187</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1398.968683817746</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>950.1865537761984</v>
       </c>
     </row>
     <row r="23">
@@ -5975,34 +5975,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6066,28 +6066,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>691.1951506745238</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="N24" t="n">
-        <v>1318.79311422913</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O24" t="n">
-        <v>1870.702844468417</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P24" t="n">
-        <v>2294.325993963485</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q24" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>197.0043242297717</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>197.0043242297717</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6145,52 +6145,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6203,7 +6203,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6212,61 +6212,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N27" t="n">
-        <v>2297.690135143765</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>699.7311804011399</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908939</v>
+        <v>699.7311804011399</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908939</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G28" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>881.3796452313796</v>
       </c>
     </row>
     <row r="29">
@@ -6452,13 +6452,13 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111717</v>
@@ -6467,16 +6467,16 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N30" t="n">
-        <v>2297.690135143765</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>763.7541388327643</v>
+        <v>642.8692823226941</v>
       </c>
       <c r="C31" t="n">
-        <v>594.8179559048574</v>
+        <v>473.9330993947872</v>
       </c>
       <c r="D31" t="n">
-        <v>549.6145409888043</v>
+        <v>323.8164599824514</v>
       </c>
       <c r="E31" t="n">
-        <v>549.6145409888043</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>945.402603663004</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6689,28 +6689,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N33" t="n">
-        <v>2297.690135143765</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6835,16 +6835,16 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>407.9027098310023</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D34" t="n">
-        <v>407.9027098310023</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E34" t="n">
-        <v>407.9027098310023</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F34" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
         <v>93.81666304797187</v>
@@ -6911,46 +6911,46 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075796</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6968,19 +6968,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7020,16 +7020,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438176</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P36" t="n">
         <v>2283.159972732779</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908939</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908939</v>
+        <v>591.7265122257528</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908939</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7117,28 +7117,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="38">
@@ -7166,25 +7166,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7193,31 +7193,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7245,28 +7245,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797186</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797186</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2074.122646505557</v>
       </c>
       <c r="P39" t="n">
         <v>2283.159972732779</v>
@@ -7309,25 +7309,25 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7391,13 +7391,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7406,7 +7406,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111717</v>
@@ -7424,10 +7424,10 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
         <v>4562.265728852255</v>
@@ -7485,22 +7485,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>95.58405025273903</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>95.58405025273903</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1174.766565373399</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>1802.364528928006</v>
       </c>
       <c r="O42" t="n">
         <v>1859.536823237711</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>376.4492432300683</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121643</v>
+        <v>228.5361496476752</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121643</v>
+        <v>228.5361496476752</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7640,28 +7640,28 @@
         <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>929.7309773356194</v>
+        <v>721.7774158311365</v>
       </c>
       <c r="C46" t="n">
-        <v>929.7309773356194</v>
+        <v>552.8412329032296</v>
       </c>
       <c r="D46" t="n">
-        <v>779.6143379232836</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E46" t="n">
-        <v>631.7012443408905</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>1896.309668945771</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.747069396417</v>
+        <v>1641.625180739884</v>
       </c>
       <c r="W46" t="n">
-        <v>1211.329899359456</v>
+        <v>1352.208010702924</v>
       </c>
       <c r="X46" t="n">
-        <v>983.3403484614391</v>
+        <v>1124.218459804906</v>
       </c>
       <c r="Y46" t="n">
-        <v>929.7309773356194</v>
+        <v>903.4258806613763</v>
       </c>
     </row>
   </sheetData>
@@ -7979,10 +7979,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>191.1953109993615</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>401.1635972595836</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -7994,10 +7994,10 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>26.19461818159724</v>
@@ -8055,28 +8055,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>380.892604166067</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>97.66080065036988</v>
       </c>
       <c r="O3" t="n">
-        <v>248.7601900310595</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8298,7 +8298,7 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>191.4694788103613</v>
+        <v>347.183091417757</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8307,16 +8307,16 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>162.7491560325412</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>20.1843750390658</v>
+        <v>20.18437503906578</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8529,10 +8529,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>35.38972270186981</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8541,19 +8541,19 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>253.1450992870219</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>256.7871481632757</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.18437503906577</v>
+        <v>20.18437503906576</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -9650,7 +9650,7 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>-2.069921525911127e-14</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -10607,7 +10607,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -23416,7 +23416,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23425,10 +23425,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>35.40333084624521</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23476,7 +23476,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>57.22910392194186</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23662,16 +23662,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>62.35543909864911</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>57.22910392194133</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>62.35543909864911</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23899,16 +23899,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24127,25 +24127,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>43.2652634529499</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>105.2672314396026</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24184,7 +24184,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24364,25 +24364,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>63.36835372228705</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24601,16 +24601,16 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24619,7 +24619,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24658,7 +24658,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>184.0188038644575</v>
       </c>
     </row>
     <row r="29">
@@ -24835,28 +24835,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>127.7255247667966</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>103.8640922513198</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,10 +24883,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25075,19 +25075,19 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>62.35543909864963</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>24.63391537253442</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
@@ -25312,25 +25312,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>45.7142345943317</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25375,7 +25375,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25549,22 +25549,22 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>57.2291039219422</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25783,25 +25783,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>57.22910392194223</v>
+        <v>32.15184655856257</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -26020,19 +26020,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26041,7 +26041,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26077,7 +26077,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>205.8445769401546</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26089,7 +26089,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>165.5113759375333</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>610849.4454526154</v>
+        <v>610849.4454526155</v>
       </c>
     </row>
     <row r="9">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>610849.4454526156</v>
+        <v>610849.4454526155</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>821041.7698642827</v>
+        <v>821041.7698642829</v>
       </c>
       <c r="C2" t="n">
-        <v>821041.7698642832</v>
+        <v>821041.7698642836</v>
       </c>
       <c r="D2" t="n">
-        <v>821041.7698642837</v>
+        <v>821041.7698642836</v>
       </c>
       <c r="E2" t="n">
-        <v>807146.599690006</v>
+        <v>807146.5996900059</v>
       </c>
       <c r="F2" t="n">
-        <v>807146.5996900062</v>
+        <v>807146.5996900059</v>
       </c>
       <c r="G2" t="n">
         <v>807146.5996900059</v>
       </c>
       <c r="H2" t="n">
+        <v>807146.5996900061</v>
+      </c>
+      <c r="I2" t="n">
         <v>807146.5996900062</v>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
         <v>807146.599690006</v>
-      </c>
-      <c r="J2" t="n">
-        <v>807146.5996900061</v>
       </c>
       <c r="K2" t="n">
         <v>807146.5996900062</v>
       </c>
       <c r="L2" t="n">
+        <v>807146.5996900062</v>
+      </c>
+      <c r="M2" t="n">
+        <v>807146.599690006</v>
+      </c>
+      <c r="N2" t="n">
+        <v>807146.599690006</v>
+      </c>
+      <c r="O2" t="n">
         <v>807146.5996900061</v>
       </c>
-      <c r="M2" t="n">
+      <c r="P2" t="n">
         <v>807146.5996900063</v>
-      </c>
-      <c r="N2" t="n">
-        <v>807146.5996900061</v>
-      </c>
-      <c r="O2" t="n">
-        <v>807146.599690006</v>
-      </c>
-      <c r="P2" t="n">
-        <v>807146.5996900062</v>
       </c>
     </row>
     <row r="3">
@@ -26366,13 +26366,13 @@
         <v>939682.9358753987</v>
       </c>
       <c r="C3" t="n">
-        <v>172764.3597898923</v>
+        <v>172764.3597898924</v>
       </c>
       <c r="D3" t="n">
         <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>500888.8677457508</v>
+        <v>500888.8677457506</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,13 +26387,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>169414.016826048</v>
+        <v>169414.0168260481</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>5.148837678054155e-11</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>130884.4569042352</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.513344614068046e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26424,40 +26424,40 @@
         <v>129066.7547252479</v>
       </c>
       <c r="E4" t="n">
-        <v>6287.480531695017</v>
+        <v>6287.480531695051</v>
       </c>
       <c r="F4" t="n">
-        <v>6287.480531694971</v>
+        <v>6287.480531695034</v>
       </c>
       <c r="G4" t="n">
-        <v>6287.480531695093</v>
+        <v>6287.480531695012</v>
       </c>
       <c r="H4" t="n">
+        <v>6287.480531695033</v>
+      </c>
+      <c r="I4" t="n">
+        <v>6287.480531695028</v>
+      </c>
+      <c r="J4" t="n">
+        <v>6287.480531695034</v>
+      </c>
+      <c r="K4" t="n">
         <v>6287.480531695051</v>
       </c>
-      <c r="I4" t="n">
+      <c r="L4" t="n">
         <v>6287.480531695051</v>
       </c>
-      <c r="J4" t="n">
-        <v>6287.480531695052</v>
-      </c>
-      <c r="K4" t="n">
-        <v>6287.480531695073</v>
-      </c>
-      <c r="L4" t="n">
-        <v>6287.480531695052</v>
-      </c>
       <c r="M4" t="n">
-        <v>6287.480531695059</v>
+        <v>6287.480531695051</v>
       </c>
       <c r="N4" t="n">
-        <v>6287.480531695091</v>
+        <v>6287.480531695044</v>
       </c>
       <c r="O4" t="n">
+        <v>6287.480531695075</v>
+      </c>
+      <c r="P4" t="n">
         <v>6287.480531695051</v>
-      </c>
-      <c r="P4" t="n">
-        <v>6287.480531695052</v>
       </c>
     </row>
     <row r="5">
@@ -26479,7 +26479,7 @@
         <v>101122.5298239071</v>
       </c>
       <c r="F5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="G5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-367772.0797232668</v>
+        <v>-367772.0797232665</v>
       </c>
       <c r="C6" t="n">
-        <v>425729.5659876334</v>
+        <v>425729.5659876337</v>
       </c>
       <c r="D6" t="n">
-        <v>598493.925777526</v>
+        <v>598493.9257775258</v>
       </c>
       <c r="E6" t="n">
-        <v>198847.7215886531</v>
+        <v>198812.9836632173</v>
       </c>
       <c r="F6" t="n">
-        <v>699736.5893344041</v>
+        <v>699701.851408968</v>
       </c>
       <c r="G6" t="n">
-        <v>699736.5893344041</v>
+        <v>699701.851408968</v>
       </c>
       <c r="H6" t="n">
-        <v>699736.5893344041</v>
+        <v>699701.8514089682</v>
       </c>
       <c r="I6" t="n">
-        <v>699736.5893344039</v>
+        <v>699701.8514089684</v>
       </c>
       <c r="J6" t="n">
-        <v>530322.572508356</v>
+        <v>530287.83458292</v>
       </c>
       <c r="K6" t="n">
-        <v>699736.5893344041</v>
+        <v>699701.8514089686</v>
       </c>
       <c r="L6" t="n">
-        <v>699736.589334404</v>
+        <v>699701.8514089684</v>
       </c>
       <c r="M6" t="n">
-        <v>568852.1324301689</v>
+        <v>568817.394504733</v>
       </c>
       <c r="N6" t="n">
-        <v>699736.589334404</v>
+        <v>699701.8514089682</v>
       </c>
       <c r="O6" t="n">
-        <v>699736.5893344039</v>
+        <v>699701.8514089683</v>
       </c>
       <c r="P6" t="n">
-        <v>699736.589334404</v>
+        <v>699701.8514089686</v>
       </c>
     </row>
   </sheetData>
@@ -26698,19 +26698,19 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26738,10 +26738,10 @@
         <v>749.9809564976108</v>
       </c>
       <c r="C3" t="n">
-        <v>939.7063906498445</v>
+        <v>939.7063906498446</v>
       </c>
       <c r="D3" t="n">
-        <v>939.7063906498447</v>
+        <v>939.7063906498448</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26790,7 +26790,7 @@
         <v>647.4981915352465</v>
       </c>
       <c r="C4" t="n">
-        <v>647.4981915352465</v>
+        <v>647.4981915352466</v>
       </c>
       <c r="D4" t="n">
         <v>647.4981915352466</v>
@@ -26802,16 +26802,16 @@
         <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
@@ -26920,7 +26920,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>9.65407064635154e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>6.436047097567694e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26960,13 +26960,13 @@
         <v>749.9809564976108</v>
       </c>
       <c r="C3" t="n">
-        <v>189.7254341522337</v>
+        <v>189.7254341522338</v>
       </c>
       <c r="D3" t="n">
         <v>2.273736754432321e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>428.2691096918293</v>
+        <v>428.2691096918292</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26999,7 +26999,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>647.4981915352465</v>
+        <v>647.4981915352467</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27157,7 +27157,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>9.65407064635154e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>319.0706280439811</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>308.5974454495113</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>94.24014755885155</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,10 +27427,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>140.315783973424</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>209.8976922291835</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27442,10 +27442,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>343.4705914620412</v>
       </c>
     </row>
     <row r="3">
@@ -27540,10 +27540,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>91.75175951238671</v>
+        <v>70.34354367013731</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27555,7 +27555,7 @@
         <v>150.2028876639205</v>
       </c>
       <c r="I4" t="n">
-        <v>114.7793764994862</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27585,25 +27585,25 @@
         <v>116.4834600519698</v>
       </c>
       <c r="S4" t="n">
-        <v>200.4475243713015</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>222.1670476323163</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.245260737819</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,10 +27613,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>143.758769842234</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27625,16 +27625,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>300.7862872484598</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>64.83556544767973</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,25 +27664,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>122.935408774453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>206.5589059457607</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.0434357771752</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>290.1540300324646</v>
       </c>
     </row>
     <row r="6">
@@ -27771,25 +27771,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>121.3492973813824</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.2964268507295</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.161060211447</v>
       </c>
       <c r="I7" t="n">
         <v>104.4906595130011</v>
@@ -27819,22 +27819,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.1001486205444</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>194.4851693340911</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7052287134384</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2265992197056</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>252.5921024254297</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27853,25 +27853,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>300.7862872484598</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>64.83556544767967</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>122.935408774453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.5589059457607</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0434357771752</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>190.5247053621748</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>171.0553363096249</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,28 +28008,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>124.738491076219</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.2964268507295</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.161060211447</v>
       </c>
       <c r="I10" t="n">
-        <v>70.55976360183945</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,25 +28056,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.1001486205444</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.4851693340911</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7052287134384</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2265992197056</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28096,7 +28096,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>-7.71678812803845e-13</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -28336,7 +28336,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>-1.317583822441294e-12</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -28375,16 +28375,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>-6.436047097567689e-14</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>-8.682195192673604e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28624,7 +28624,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>-1.077696578835832e-13</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29512,7 +29512,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -30220,7 +30220,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>8.682195192673604e-13</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>-1.70530256582424e-13</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30472,7 +30472,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -31276,7 +31276,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.777714133265703</v>
+        <v>3.777714133265704</v>
       </c>
       <c r="H5" t="n">
         <v>38.6885148673074</v>
@@ -31288,37 +31288,37 @@
         <v>320.6287649182603</v>
       </c>
       <c r="K5" t="n">
-        <v>480.5394041793976</v>
+        <v>480.5394041793977</v>
       </c>
       <c r="L5" t="n">
         <v>596.1516230853281</v>
       </c>
       <c r="M5" t="n">
-        <v>663.3335468027919</v>
+        <v>663.3335468027921</v>
       </c>
       <c r="N5" t="n">
         <v>674.0669770839332</v>
       </c>
       <c r="O5" t="n">
-        <v>636.5023321712723</v>
+        <v>636.5023321712724</v>
       </c>
       <c r="P5" t="n">
         <v>543.2400145062752</v>
       </c>
       <c r="Q5" t="n">
-        <v>407.950627108697</v>
+        <v>407.9506271086971</v>
       </c>
       <c r="R5" t="n">
         <v>237.301835423752</v>
       </c>
       <c r="S5" t="n">
-        <v>86.0846608117923</v>
+        <v>86.08466081179232</v>
       </c>
       <c r="T5" t="n">
-        <v>16.53694361837062</v>
+        <v>16.53694361837063</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3022171306612562</v>
+        <v>0.3022171306612563</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31361,7 +31361,7 @@
         <v>19.52107049255621</v>
       </c>
       <c r="I6" t="n">
-        <v>69.59146383586113</v>
+        <v>69.59146383586115</v>
       </c>
       <c r="J6" t="n">
         <v>190.9642958583802</v>
@@ -31382,19 +31382,19 @@
         <v>480.9080431470011</v>
       </c>
       <c r="P6" t="n">
-        <v>385.9711022274805</v>
+        <v>385.9711022274806</v>
       </c>
       <c r="Q6" t="n">
-        <v>258.0114603157837</v>
+        <v>258.0114603157838</v>
       </c>
       <c r="R6" t="n">
         <v>125.4951289248982</v>
       </c>
       <c r="S6" t="n">
-        <v>37.54392985284989</v>
+        <v>37.5439298528499</v>
       </c>
       <c r="T6" t="n">
-        <v>8.147077103841573</v>
+        <v>8.147077103841575</v>
       </c>
       <c r="U6" t="n">
         <v>0.1329773194315818</v>
@@ -31440,25 +31440,25 @@
         <v>15.0661122959926</v>
       </c>
       <c r="I7" t="n">
-        <v>50.95981541425715</v>
+        <v>50.95981541425716</v>
       </c>
       <c r="J7" t="n">
         <v>119.8048622964564</v>
       </c>
       <c r="K7" t="n">
-        <v>196.8761913525411</v>
+        <v>196.8761913525412</v>
       </c>
       <c r="L7" t="n">
         <v>251.9337428309436</v>
       </c>
       <c r="M7" t="n">
-        <v>265.6288080979551</v>
+        <v>265.6288080979552</v>
       </c>
       <c r="N7" t="n">
-        <v>259.3127487509646</v>
+        <v>259.3127487509647</v>
       </c>
       <c r="O7" t="n">
-        <v>239.5172944561276</v>
+        <v>239.5172944561277</v>
       </c>
       <c r="P7" t="n">
         <v>204.9484232984512</v>
@@ -31467,16 +31467,16 @@
         <v>141.8956649881265</v>
       </c>
       <c r="R7" t="n">
-        <v>76.19324275662507</v>
+        <v>76.19324275662508</v>
       </c>
       <c r="S7" t="n">
-        <v>29.53142870288116</v>
+        <v>29.53142870288117</v>
       </c>
       <c r="T7" t="n">
-        <v>7.240360714843061</v>
+        <v>7.240360714843062</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0924301367852307</v>
+        <v>0.09243013678523071</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,10 +31513,10 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.777714133265704</v>
+        <v>3.777714133265705</v>
       </c>
       <c r="H8" t="n">
-        <v>38.6885148673074</v>
+        <v>38.68851486730741</v>
       </c>
       <c r="I8" t="n">
         <v>145.6403241227262</v>
@@ -31534,16 +31534,16 @@
         <v>663.3335468027922</v>
       </c>
       <c r="N8" t="n">
-        <v>674.0669770839334</v>
+        <v>674.0669770839335</v>
       </c>
       <c r="O8" t="n">
-        <v>636.5023321712724</v>
+        <v>636.5023321712725</v>
       </c>
       <c r="P8" t="n">
         <v>543.2400145062753</v>
       </c>
       <c r="Q8" t="n">
-        <v>407.9506271086971</v>
+        <v>407.9506271086972</v>
       </c>
       <c r="R8" t="n">
         <v>237.301835423752</v>
@@ -31592,13 +31592,13 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.021255255360043</v>
+        <v>2.021255255360044</v>
       </c>
       <c r="H9" t="n">
         <v>19.52107049255621</v>
       </c>
       <c r="I9" t="n">
-        <v>69.59146383586115</v>
+        <v>69.59146383586116</v>
       </c>
       <c r="J9" t="n">
         <v>190.9642958583803</v>
@@ -31616,7 +31616,7 @@
         <v>525.694804331558</v>
       </c>
       <c r="O9" t="n">
-        <v>480.9080431470012</v>
+        <v>480.9080431470013</v>
       </c>
       <c r="P9" t="n">
         <v>385.9711022274806</v>
@@ -31631,7 +31631,7 @@
         <v>37.54392985284991</v>
       </c>
       <c r="T9" t="n">
-        <v>8.147077103841575</v>
+        <v>8.147077103841577</v>
       </c>
       <c r="U9" t="n">
         <v>0.1329773194315819</v>
@@ -31677,7 +31677,7 @@
         <v>15.0661122959926</v>
       </c>
       <c r="I10" t="n">
-        <v>50.95981541425716</v>
+        <v>50.95981541425717</v>
       </c>
       <c r="J10" t="n">
         <v>119.8048622964564</v>
@@ -31686,7 +31686,7 @@
         <v>196.8761913525412</v>
       </c>
       <c r="L10" t="n">
-        <v>251.9337428309436</v>
+        <v>251.9337428309437</v>
       </c>
       <c r="M10" t="n">
         <v>265.6288080979552</v>
@@ -31704,16 +31704,16 @@
         <v>141.8956649881266</v>
       </c>
       <c r="R10" t="n">
-        <v>76.19324275662508</v>
+        <v>76.1932427566251</v>
       </c>
       <c r="S10" t="n">
-        <v>29.53142870288117</v>
+        <v>29.53142870288118</v>
       </c>
       <c r="T10" t="n">
-        <v>7.240360714843063</v>
+        <v>7.240360714843064</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09243013678523072</v>
+        <v>0.09243013678523074</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31838,31 +31838,31 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
         <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>469.5567819573404</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742439</v>
@@ -31987,40 +31987,40 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
         <v>125.3175546292901</v>
@@ -32029,7 +32029,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32075,34 +32075,34 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071787</v>
+        <v>151.9914336104071</v>
       </c>
       <c r="O15" t="n">
-        <v>164.9290651940682</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
@@ -32145,13 +32145,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796262</v>
@@ -32169,7 +32169,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
@@ -32181,7 +32181,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>592.1874941409601</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>191.332301678856</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,16 +32540,16 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
         <v>137.841438974359</v>
@@ -32558,31 +32558,31 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>601.0567753070487</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>416.4300581532619</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R24" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>253.6713445157994</v>
       </c>
       <c r="O27" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33257,13 +33257,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>247.3820194983584</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
@@ -33272,19 +33272,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33494,34 +33494,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>422.1299181110993</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33740,10 +33740,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>555.1777416630679</v>
       </c>
       <c r="M36" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
@@ -33752,7 +33752,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>375.599612848529</v>
@@ -33968,28 +33968,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>345.1232217852619</v>
       </c>
       <c r="Q39" t="n">
         <v>375.599612848529</v>
@@ -34205,25 +34205,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>732.4825987614915</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>200.3460366764704</v>
       </c>
       <c r="P42" t="n">
         <v>561.8765786214698</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>368.6279838366855</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34699,10 +34699,10 @@
         <v>243.9449667520774</v>
       </c>
       <c r="K2" t="n">
-        <v>354.6246161155185</v>
+        <v>487.5747176873218</v>
       </c>
       <c r="L2" t="n">
-        <v>240.0230113315071</v>
+        <v>641.1866085910907</v>
       </c>
       <c r="M2" t="n">
         <v>299.0611783410131</v>
@@ -34714,10 +34714,10 @@
         <v>277.8951710269035</v>
       </c>
       <c r="P2" t="n">
-        <v>524.1263114938092</v>
+        <v>202.3276033223266</v>
       </c>
       <c r="Q2" t="n">
-        <v>315.5952546185461</v>
+        <v>103.2802639586414</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>151.662274559733</v>
+        <v>25.57123921932421</v>
       </c>
       <c r="K3" t="n">
-        <v>387.1148251643756</v>
+        <v>122.649588151797</v>
       </c>
       <c r="L3" t="n">
-        <v>211.7079527806374</v>
+        <v>582.5482980840966</v>
       </c>
       <c r="M3" t="n">
-        <v>266.6055873691795</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="N3" t="n">
-        <v>288.2160307407405</v>
+        <v>385.8768313911104</v>
       </c>
       <c r="O3" t="n">
-        <v>489.977313012331</v>
+        <v>241.2171229812715</v>
       </c>
       <c r="P3" t="n">
         <v>492.5324261689369</v>
       </c>
       <c r="Q3" t="n">
-        <v>276.0148132527188</v>
+        <v>65.9375255168697</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>139.582860391574</v>
+        <v>139.5828603915741</v>
       </c>
       <c r="K5" t="n">
-        <v>260.4495531344171</v>
+        <v>260.4495531344172</v>
       </c>
       <c r="L5" t="n">
         <v>360.3852081153408</v>
       </c>
       <c r="M5" t="n">
-        <v>432.9873135755192</v>
+        <v>432.9873135755194</v>
       </c>
       <c r="N5" t="n">
         <v>444.6539134873423</v>
       </c>
       <c r="O5" t="n">
-        <v>406.4041207495856</v>
+        <v>406.4041207495857</v>
       </c>
       <c r="P5" t="n">
         <v>312.0070187510057</v>
       </c>
       <c r="Q5" t="n">
-        <v>185.6449372342475</v>
+        <v>185.6449372342476</v>
       </c>
       <c r="R5" t="n">
-        <v>21.71629760961983</v>
+        <v>21.71629760961986</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,13 +35012,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>64.12666919171352</v>
+        <v>64.12666919171355</v>
       </c>
       <c r="K6" t="n">
         <v>188.5469589931441</v>
       </c>
       <c r="L6" t="n">
-        <v>491.7845789278509</v>
+        <v>647.4981915352466</v>
       </c>
       <c r="M6" t="n">
         <v>370.0059489821469</v>
@@ -35027,13 +35027,13 @@
         <v>394.3530922482246</v>
       </c>
       <c r="O6" t="n">
-        <v>338.3117987025566</v>
+        <v>501.0609547350979</v>
       </c>
       <c r="P6" t="n">
-        <v>570.4594634530874</v>
+        <v>251.9966948131503</v>
       </c>
       <c r="Q6" t="n">
-        <v>118.0296862297622</v>
+        <v>118.0296862297623</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,7 +35091,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>26.4456821797836</v>
+        <v>26.44568217978362</v>
       </c>
       <c r="K7" t="n">
         <v>174.6066995266583</v>
@@ -35100,10 +35100,10 @@
         <v>279.5237680912597</v>
       </c>
       <c r="M7" t="n">
-        <v>305.2126850597957</v>
+        <v>305.2126850597958</v>
       </c>
       <c r="N7" t="n">
-        <v>303.4449211301932</v>
+        <v>303.4449211301933</v>
       </c>
       <c r="O7" t="n">
         <v>264.1024223701673</v>
@@ -35112,7 +35112,7 @@
         <v>202.2269825633447</v>
       </c>
       <c r="Q7" t="n">
-        <v>55.73362173643211</v>
+        <v>55.73362173643214</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35173,7 +35173,7 @@
         <v>139.5828603915741</v>
       </c>
       <c r="K8" t="n">
-        <v>260.4495531344172</v>
+        <v>260.4495531344173</v>
       </c>
       <c r="L8" t="n">
         <v>360.385208115341</v>
@@ -35182,19 +35182,19 @@
         <v>432.9873135755195</v>
       </c>
       <c r="N8" t="n">
-        <v>444.6539134873424</v>
+        <v>444.6539134873425</v>
       </c>
       <c r="O8" t="n">
-        <v>406.4041207495857</v>
+        <v>406.4041207495858</v>
       </c>
       <c r="P8" t="n">
         <v>312.0070187510058</v>
       </c>
       <c r="Q8" t="n">
-        <v>185.6449372342476</v>
+        <v>185.6449372342477</v>
       </c>
       <c r="R8" t="n">
-        <v>21.71629760961989</v>
+        <v>21.71629760961991</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,10 +35249,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>99.51639189358339</v>
+        <v>64.1266691917136</v>
       </c>
       <c r="K9" t="n">
-        <v>453.0121960057228</v>
+        <v>188.5469589931442</v>
       </c>
       <c r="L9" t="n">
         <v>300.3151001174897</v>
@@ -35261,16 +35261,16 @@
         <v>370.005948982147</v>
       </c>
       <c r="N9" t="n">
-        <v>394.3530922482247</v>
+        <v>647.4981915352466</v>
       </c>
       <c r="O9" t="n">
-        <v>338.3117987025568</v>
+        <v>595.0989468658325</v>
       </c>
       <c r="P9" t="n">
-        <v>251.9966948131503</v>
+        <v>251.9966948131504</v>
       </c>
       <c r="Q9" t="n">
-        <v>328.1069739656114</v>
+        <v>118.0296862297623</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,13 +35328,13 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>26.44568217978363</v>
+        <v>26.44568217978365</v>
       </c>
       <c r="K10" t="n">
         <v>174.6066995266583</v>
       </c>
       <c r="L10" t="n">
-        <v>279.5237680912597</v>
+        <v>279.5237680912598</v>
       </c>
       <c r="M10" t="n">
         <v>305.2126850597958</v>
@@ -35343,7 +35343,7 @@
         <v>303.4449211301933</v>
       </c>
       <c r="O10" t="n">
-        <v>264.1024223701673</v>
+        <v>264.1024223701674</v>
       </c>
       <c r="P10" t="n">
         <v>202.2269825633448</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>327.4227480353221</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>257.9506595121318</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35641,31 +35641,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902405</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754089</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674332</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238455</v>
+        <v>20.64972152707382</v>
       </c>
       <c r="O15" t="n">
-        <v>22.33282074962379</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
         <v>264.332588409635</v>
@@ -35814,7 +35814,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
         <v>373.2618997060455</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>453.6331143610859</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>59.99058959552271</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,10 +36194,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -36206,22 +36206,22 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>469.7150632237154</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243148</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>274.2960242312436</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R24" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>122.3296324324661</v>
       </c>
       <c r="O27" t="n">
-        <v>257.9506595121318</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36905,13 +36905,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>120.5443928316917</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
@@ -36920,19 +36920,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>283.5755383312251</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37327,7 +37327,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37388,10 +37388,10 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>416.6233618831937</v>
       </c>
       <c r="M36" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
@@ -37400,7 +37400,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>235.6178387625075</v>
@@ -37616,28 +37616,28 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402482</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>211.1488143709317</v>
       </c>
       <c r="Q39" t="n">
         <v>235.6178387625075</v>
@@ -37853,25 +37853,25 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>590.3485648394733</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>57.74979223202591</v>
       </c>
       <c r="P42" t="n">
         <v>427.9021712071395</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,7 +38090,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38099,25 +38099,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>237.2862717533522</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
